--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osm23\Desktop\lecture\IoT\esp32\hw\hw07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7C675D-9B7A-45CD-94F0-3F34D11A12AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B912B8E7-F3D9-45DA-ACC8-8FD532C6CDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,27 @@
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$K$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$L$19</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Actual Distance (m)</t>
   </si>
@@ -67,13 +80,17 @@
     <t>Measurement</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Error Margin(%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -229,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -239,6 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -254,7 +272,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -338,7 +359,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1323,16 +1344,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>52386</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1650,7 +1671,7 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B1:K19"/>
+  <dimension ref="B1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0"/>
   </sheetViews>
@@ -1660,30 +1681,32 @@
     <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="2:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="F2" s="8" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="13"/>
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1693,367 +1716,390 @@
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>0.3</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="7">
         <v>0.30066666666666703</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="14">
         <v>6.6666666666664876E-4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="2">
+        <f>D4/B4*100</f>
+        <v>0.22222222222221627</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.2</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.5</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.89</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.79</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1.78</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>0.5</v>
       </c>
       <c r="C5">
         <v>0.60200000000000009</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="14">
         <v>0.1020000000000001</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5">
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:E8" si="0">D5/B5*100</f>
+        <v>20.40000000000002</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5">
         <v>0.45</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.79</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.89</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>0.8</v>
       </c>
       <c r="C6">
         <v>0.91800000000000026</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="14">
         <v>0.1180000000000002</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6">
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>14.750000000000025</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6">
         <v>0.25</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.4</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.71</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.79</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>5.01</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>1</v>
       </c>
       <c r="C7">
         <v>0.91599999999999993</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="14">
         <v>8.4000000000000075E-2</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7">
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>8.4000000000000075</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7">
         <v>0.18</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.89</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>1.58</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>1.5</v>
       </c>
       <c r="C8" s="3">
         <v>2.6960000000000002</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>1.196</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8">
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>79.733333333333334</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8">
         <v>0.18</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.71</v>
-      </c>
-      <c r="I8">
-        <v>1.1200000000000001</v>
       </c>
       <c r="J8">
         <v>1.1200000000000001</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L8" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F9" s="10"/>
-      <c r="G9">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G9" s="11"/>
+      <c r="H9">
         <v>0.18</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.71</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F10" s="10"/>
-      <c r="G10">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G10" s="11"/>
+      <c r="H10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.63</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.89</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>1.78</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F11" s="10"/>
-      <c r="G11">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G11" s="11"/>
+      <c r="H11">
         <v>0.32</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.5</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.79</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.89</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F12" s="10"/>
-      <c r="G12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G12" s="11"/>
+      <c r="H12">
         <v>0.32</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.5</v>
-      </c>
-      <c r="I12">
-        <v>0.89</v>
       </c>
       <c r="J12">
         <v>0.89</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12">
+        <v>0.89</v>
+      </c>
+      <c r="L12" s="2">
         <v>3.55</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F13" s="10"/>
-      <c r="G13">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G13" s="11"/>
+      <c r="H13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.79</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>3.55</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F14" s="10"/>
-      <c r="G14">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G14" s="11"/>
+      <c r="H14">
         <v>0.32</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.89</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1.1200000000000001</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F15" s="10"/>
-      <c r="G15">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G15" s="11"/>
+      <c r="H15">
         <v>0.32</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.56000000000000005</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F16" s="10"/>
-      <c r="G16">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G16" s="11"/>
+      <c r="H16">
         <v>0.35</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.71</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.79</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.89</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="2">
         <v>2.82</v>
       </c>
     </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F17" s="10"/>
-      <c r="G17">
+    <row r="17" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G17" s="11"/>
+      <c r="H17">
         <v>0.32</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.63</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.89</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.79</v>
       </c>
-      <c r="K17" s="2">
+      <c r="L17" s="2">
         <v>5.62</v>
       </c>
     </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F18" s="11"/>
-      <c r="G18">
+    <row r="18" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G18" s="12"/>
+      <c r="H18">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.71</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.89</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.79</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F19" s="1" t="s">
+    <row r="19" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>0.30066666666666658</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <v>0.60200000000000009</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J19" s="3">
         <v>0.91800000000000026</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <v>0.91599999999999993</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>2.6960000000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="F4:F18"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="G4:G18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
